--- a/data/pca/factorExposure/factorExposure_2014-09-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004360289828616641</v>
+        <v>0.01847559694679899</v>
       </c>
       <c r="C2">
-        <v>0.1200435050060209</v>
+        <v>0.07022660333438122</v>
       </c>
       <c r="D2">
-        <v>-0.03064467253042275</v>
+        <v>0.03253691232391717</v>
       </c>
       <c r="E2">
-        <v>-0.2296551807741599</v>
+        <v>-0.0461890462135001</v>
       </c>
       <c r="F2">
-        <v>0.05177657440145941</v>
+        <v>-0.1500400352776526</v>
       </c>
       <c r="G2">
-        <v>0.03859063298746298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.005643168816207163</v>
+      </c>
+      <c r="H2">
+        <v>-0.06189794550524699</v>
+      </c>
+      <c r="I2">
+        <v>-0.02165910160143754</v>
+      </c>
+      <c r="J2">
+        <v>-0.02414465626811652</v>
+      </c>
+      <c r="K2">
+        <v>0.1594525326785659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01570012981136803</v>
+        <v>0.01631555696232053</v>
       </c>
       <c r="C4">
-        <v>0.16568907138157</v>
+        <v>0.1454993539887318</v>
       </c>
       <c r="D4">
-        <v>-0.03223824742187782</v>
+        <v>0.06552430882748547</v>
       </c>
       <c r="E4">
-        <v>-0.0529768040257255</v>
+        <v>0.03481088889230164</v>
       </c>
       <c r="F4">
-        <v>-0.06786306870031145</v>
+        <v>-0.06609481306902913</v>
       </c>
       <c r="G4">
-        <v>-0.03747666156258419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03823549619091005</v>
+      </c>
+      <c r="H4">
+        <v>-0.0659504465481702</v>
+      </c>
+      <c r="I4">
+        <v>-0.08670656998281176</v>
+      </c>
+      <c r="J4">
+        <v>-0.004911961684633521</v>
+      </c>
+      <c r="K4">
+        <v>0.1868291462963284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02499573505026783</v>
+        <v>0.03767009123410289</v>
       </c>
       <c r="C6">
-        <v>0.07771482181826563</v>
+        <v>0.08638580012819247</v>
       </c>
       <c r="D6">
-        <v>-0.05207873391942269</v>
+        <v>0.02704116673991639</v>
       </c>
       <c r="E6">
-        <v>-0.05896906996159865</v>
+        <v>-0.03810220700407801</v>
       </c>
       <c r="F6">
-        <v>-0.02244987087915512</v>
+        <v>-0.03174054074278626</v>
       </c>
       <c r="G6">
-        <v>-0.02195088973954651</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04293864839719434</v>
+      </c>
+      <c r="H6">
+        <v>-0.03406001696530993</v>
+      </c>
+      <c r="I6">
+        <v>0.01335999265381754</v>
+      </c>
+      <c r="J6">
+        <v>0.09216255185482998</v>
+      </c>
+      <c r="K6">
+        <v>0.07635806000403207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0002106878153396929</v>
+        <v>0.0181517196384883</v>
       </c>
       <c r="C7">
-        <v>0.06360794229655242</v>
+        <v>0.07045494843514456</v>
       </c>
       <c r="D7">
-        <v>-0.03823570461750652</v>
+        <v>0.03078606690971265</v>
       </c>
       <c r="E7">
-        <v>-0.01698830534160397</v>
+        <v>0.016964589162099</v>
       </c>
       <c r="F7">
-        <v>-0.02780015640498173</v>
+        <v>0.004224113815980597</v>
       </c>
       <c r="G7">
-        <v>-0.03318571599148844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03795359387244956</v>
+      </c>
+      <c r="H7">
+        <v>-0.07884202711953225</v>
+      </c>
+      <c r="I7">
+        <v>-0.04865432973507292</v>
+      </c>
+      <c r="J7">
+        <v>0.007357904663559272</v>
+      </c>
+      <c r="K7">
+        <v>0.02511424930808436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01464039146486878</v>
+        <v>-0.0002754001348970465</v>
       </c>
       <c r="C8">
-        <v>0.06644573867456272</v>
+        <v>0.0605370825009623</v>
       </c>
       <c r="D8">
-        <v>-0.04559080847225282</v>
+        <v>0.04575831503835258</v>
       </c>
       <c r="E8">
-        <v>-0.06715298976275731</v>
+        <v>-0.004357838461842613</v>
       </c>
       <c r="F8">
-        <v>-0.007319421948459021</v>
+        <v>-0.06118746924957157</v>
       </c>
       <c r="G8">
-        <v>0.003524785590894777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01446769628438026</v>
+      </c>
+      <c r="H8">
+        <v>-0.05527272067162353</v>
+      </c>
+      <c r="I8">
+        <v>-0.0347800495947181</v>
+      </c>
+      <c r="J8">
+        <v>0.001026737197400898</v>
+      </c>
+      <c r="K8">
+        <v>-0.01165680410252658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.007141336267980554</v>
+        <v>0.01296638311214848</v>
       </c>
       <c r="C9">
-        <v>0.1191866871174355</v>
+        <v>0.1034229730526161</v>
       </c>
       <c r="D9">
-        <v>-0.0458996995567501</v>
+        <v>0.0418780659128141</v>
       </c>
       <c r="E9">
-        <v>-0.01473062502753189</v>
+        <v>0.009142401460552394</v>
       </c>
       <c r="F9">
-        <v>-0.00873230183456195</v>
+        <v>-0.0355723133164924</v>
       </c>
       <c r="G9">
-        <v>-0.05337213429400867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0226990644925956</v>
+      </c>
+      <c r="H9">
+        <v>-0.06958163122693027</v>
+      </c>
+      <c r="I9">
+        <v>-0.08620594236931588</v>
+      </c>
+      <c r="J9">
+        <v>0.005606580074965209</v>
+      </c>
+      <c r="K9">
+        <v>0.08448537231133108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2706602476742608</v>
+        <v>0.2482942332005358</v>
       </c>
       <c r="C10">
-        <v>-0.06887336387786532</v>
+        <v>-0.0895873712234893</v>
       </c>
       <c r="D10">
-        <v>0.02688126915661262</v>
+        <v>-0.007351900756659775</v>
       </c>
       <c r="E10">
-        <v>0.02352612979880061</v>
+        <v>-0.01417018836315087</v>
       </c>
       <c r="F10">
-        <v>-0.007890328167502984</v>
+        <v>0.006226428014441119</v>
       </c>
       <c r="G10">
-        <v>-0.0284894325346485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03157401317139085</v>
+      </c>
+      <c r="H10">
+        <v>-0.03074895638088829</v>
+      </c>
+      <c r="I10">
+        <v>-0.01756930713760376</v>
+      </c>
+      <c r="J10">
+        <v>-0.1636023978367855</v>
+      </c>
+      <c r="K10">
+        <v>-0.06932871707994888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003626293196918238</v>
+        <v>0.01614297162229189</v>
       </c>
       <c r="C11">
-        <v>0.06647432002607627</v>
+        <v>0.08181048341243632</v>
       </c>
       <c r="D11">
-        <v>-0.02952392003196454</v>
+        <v>0.03821700647837888</v>
       </c>
       <c r="E11">
-        <v>0.02296800698001771</v>
+        <v>0.005492790473758858</v>
       </c>
       <c r="F11">
-        <v>-0.008079780304615019</v>
+        <v>0.01124791597642904</v>
       </c>
       <c r="G11">
-        <v>-0.04874607813609146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01297462033107233</v>
+      </c>
+      <c r="H11">
+        <v>-0.02180819030374267</v>
+      </c>
+      <c r="I11">
+        <v>-0.02126318875653168</v>
+      </c>
+      <c r="J11">
+        <v>0.02912045952385213</v>
+      </c>
+      <c r="K11">
+        <v>-0.009439080922704955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0003722497002095817</v>
+        <v>0.01540690826052746</v>
       </c>
       <c r="C12">
-        <v>0.04474548634356565</v>
+        <v>0.05491626763563268</v>
       </c>
       <c r="D12">
-        <v>-0.03511571822853433</v>
+        <v>0.02570141730037899</v>
       </c>
       <c r="E12">
-        <v>0.01581738016388769</v>
+        <v>-0.01905926837798571</v>
       </c>
       <c r="F12">
-        <v>0.02196365251970884</v>
+        <v>0.01012380561125078</v>
       </c>
       <c r="G12">
-        <v>-0.06558169547047234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.02963137702917884</v>
+      </c>
+      <c r="H12">
+        <v>-0.01214950160448515</v>
+      </c>
+      <c r="I12">
+        <v>-0.02562668909365147</v>
+      </c>
+      <c r="J12">
+        <v>0.02097099325346036</v>
+      </c>
+      <c r="K12">
+        <v>4.736628008549326e-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.009048101610164215</v>
+        <v>0.004692605083944368</v>
       </c>
       <c r="C13">
-        <v>0.125965862485104</v>
+        <v>0.118015202351359</v>
       </c>
       <c r="D13">
-        <v>-0.07278002859066353</v>
+        <v>0.04177824961020225</v>
       </c>
       <c r="E13">
-        <v>-0.0536187148057994</v>
+        <v>-0.111071221131559</v>
       </c>
       <c r="F13">
-        <v>0.05489147357375854</v>
+        <v>-0.1132892370044101</v>
       </c>
       <c r="G13">
-        <v>-0.1803345584518347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1415960728556674</v>
+      </c>
+      <c r="H13">
+        <v>-0.1215437532640611</v>
+      </c>
+      <c r="I13">
+        <v>0.005351384960411502</v>
+      </c>
+      <c r="J13">
+        <v>-0.2278396305735802</v>
+      </c>
+      <c r="K13">
+        <v>-0.2426295883039026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.008978222352659519</v>
+        <v>0.02033068181394859</v>
       </c>
       <c r="C14">
-        <v>0.07291841234667638</v>
+        <v>0.07499628298162264</v>
       </c>
       <c r="D14">
-        <v>-0.03708472752087547</v>
+        <v>0.04928194578777406</v>
       </c>
       <c r="E14">
-        <v>-0.02683188504338591</v>
+        <v>-0.04427901339982251</v>
       </c>
       <c r="F14">
-        <v>0.01936712987030204</v>
+        <v>-0.004026508659310763</v>
       </c>
       <c r="G14">
-        <v>-0.08682070411646883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.1047377471616888</v>
+      </c>
+      <c r="H14">
+        <v>-0.1688026550467903</v>
+      </c>
+      <c r="I14">
+        <v>-0.08874341041062903</v>
+      </c>
+      <c r="J14">
+        <v>0.009423216160421277</v>
+      </c>
+      <c r="K14">
+        <v>-0.1235235515292097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002831681011198633</v>
+        <v>0.003727497329742887</v>
       </c>
       <c r="C15">
-        <v>0.09889062095390225</v>
+        <v>0.0824039797751157</v>
       </c>
       <c r="D15">
-        <v>-0.04694466667446434</v>
+        <v>0.03392484463748639</v>
       </c>
       <c r="E15">
-        <v>-0.04044485731608787</v>
+        <v>0.008089845272441195</v>
       </c>
       <c r="F15">
-        <v>-0.009277789008706808</v>
+        <v>-0.02736117278740084</v>
       </c>
       <c r="G15">
-        <v>-0.04827371465886141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03481365816904988</v>
+      </c>
+      <c r="H15">
+        <v>-0.07645639755762518</v>
+      </c>
+      <c r="I15">
+        <v>-0.05902792668176736</v>
+      </c>
+      <c r="J15">
+        <v>0.01954529834105855</v>
+      </c>
+      <c r="K15">
+        <v>-0.06844707925482578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.006594923106402083</v>
+        <v>0.01514601235873177</v>
       </c>
       <c r="C16">
-        <v>0.05648893626283708</v>
+        <v>0.06162293119915305</v>
       </c>
       <c r="D16">
-        <v>-0.02575877813927212</v>
+        <v>0.02686297231407504</v>
       </c>
       <c r="E16">
-        <v>0.01361079209227693</v>
+        <v>0.001956749430130459</v>
       </c>
       <c r="F16">
-        <v>0.008027333233253081</v>
+        <v>0.00622914350390506</v>
       </c>
       <c r="G16">
-        <v>-0.03461423797840384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01087114048667994</v>
+      </c>
+      <c r="H16">
+        <v>-0.0138020473644882</v>
+      </c>
+      <c r="I16">
+        <v>-0.01758225216644004</v>
+      </c>
+      <c r="J16">
+        <v>0.02203757733747924</v>
+      </c>
+      <c r="K16">
+        <v>0.006160483374509348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01003544928230586</v>
+        <v>0.01436361741906144</v>
       </c>
       <c r="C20">
-        <v>0.08523536812218853</v>
+        <v>0.08500283780646245</v>
       </c>
       <c r="D20">
-        <v>-0.03772498554276475</v>
+        <v>0.0263079397805288</v>
       </c>
       <c r="E20">
-        <v>0.02511828597304889</v>
+        <v>0.02252682836997713</v>
       </c>
       <c r="F20">
-        <v>-0.00763219306927743</v>
+        <v>0.009793106209344142</v>
       </c>
       <c r="G20">
-        <v>-0.1057574525383175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04505282542121301</v>
+      </c>
+      <c r="H20">
+        <v>-0.06059888058514835</v>
+      </c>
+      <c r="I20">
+        <v>-0.03741028645731118</v>
+      </c>
+      <c r="J20">
+        <v>0.01972383288903728</v>
+      </c>
+      <c r="K20">
+        <v>0.008583250749233939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.005552816612755225</v>
+        <v>0.01216049318108689</v>
       </c>
       <c r="C21">
-        <v>0.09147519401906519</v>
+        <v>0.07294516596703493</v>
       </c>
       <c r="D21">
-        <v>0.01434133402224837</v>
+        <v>0.0189394698041181</v>
       </c>
       <c r="E21">
-        <v>-0.0374471236147963</v>
+        <v>-0.09418552320518642</v>
       </c>
       <c r="F21">
-        <v>0.06299708689618841</v>
+        <v>-0.02175461287600991</v>
       </c>
       <c r="G21">
-        <v>-0.05823832253657646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04323921919989322</v>
+      </c>
+      <c r="H21">
+        <v>-0.1377825547807407</v>
+      </c>
+      <c r="I21">
+        <v>-0.02956905165634671</v>
+      </c>
+      <c r="J21">
+        <v>-0.02006717068626493</v>
+      </c>
+      <c r="K21">
+        <v>-0.04269335782649275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01305772605526086</v>
+        <v>0.003832039040876416</v>
       </c>
       <c r="C22">
-        <v>0.2494371918225739</v>
+        <v>0.1735997282581229</v>
       </c>
       <c r="D22">
-        <v>0.08264203556323149</v>
+        <v>0.01777045088744951</v>
       </c>
       <c r="E22">
-        <v>-0.2997503514662421</v>
+        <v>0.1254749136395821</v>
       </c>
       <c r="F22">
-        <v>-0.30075208203225</v>
+        <v>-0.519916915952396</v>
       </c>
       <c r="G22">
-        <v>0.1188794424486095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.02425043619206545</v>
+      </c>
+      <c r="H22">
+        <v>0.2555477411472948</v>
+      </c>
+      <c r="I22">
+        <v>0.1782000720508138</v>
+      </c>
+      <c r="J22">
+        <v>-0.00226797015860801</v>
+      </c>
+      <c r="K22">
+        <v>-0.1770487886734533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01443645476652951</v>
+        <v>0.009059870557848603</v>
       </c>
       <c r="C23">
-        <v>0.2521002428495154</v>
+        <v>0.1774012490232155</v>
       </c>
       <c r="D23">
-        <v>0.0871691421186207</v>
+        <v>0.01764638181831938</v>
       </c>
       <c r="E23">
-        <v>-0.2944110592649282</v>
+        <v>0.1200016384690593</v>
       </c>
       <c r="F23">
-        <v>-0.2959390666086234</v>
+        <v>-0.504894495951115</v>
       </c>
       <c r="G23">
-        <v>0.1180398063632418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.02160661589834189</v>
+      </c>
+      <c r="H23">
+        <v>0.2412295779310145</v>
+      </c>
+      <c r="I23">
+        <v>0.1600502849468279</v>
+      </c>
+      <c r="J23">
+        <v>0.003143574471017449</v>
+      </c>
+      <c r="K23">
+        <v>-0.1660220182496115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.001046520071139564</v>
+        <v>0.01590929345571273</v>
       </c>
       <c r="C24">
-        <v>0.05331611311856238</v>
+        <v>0.06498040941403066</v>
       </c>
       <c r="D24">
-        <v>-0.04216653231552522</v>
+        <v>0.04016814518347726</v>
       </c>
       <c r="E24">
-        <v>0.01605265194129119</v>
+        <v>0.003710907225342513</v>
       </c>
       <c r="F24">
-        <v>-0.001482177210170202</v>
+        <v>0.007303657626426532</v>
       </c>
       <c r="G24">
-        <v>-0.06323445537242817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02868271270542584</v>
+      </c>
+      <c r="H24">
+        <v>-0.02816706111671628</v>
+      </c>
+      <c r="I24">
+        <v>-0.02536564125408005</v>
+      </c>
+      <c r="J24">
+        <v>0.02283032079069144</v>
+      </c>
+      <c r="K24">
+        <v>-0.002351169895681347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.00379411765921075</v>
+        <v>0.01991322148324743</v>
       </c>
       <c r="C25">
-        <v>0.06346762861518136</v>
+        <v>0.06813296653193036</v>
       </c>
       <c r="D25">
-        <v>-0.02112749131145393</v>
+        <v>0.03332352351419907</v>
       </c>
       <c r="E25">
-        <v>0.02206197096760938</v>
+        <v>0.005000985121063149</v>
       </c>
       <c r="F25">
-        <v>-0.001196375563647856</v>
+        <v>0.005427791716561597</v>
       </c>
       <c r="G25">
-        <v>-0.05905438949069495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02180577149626945</v>
+      </c>
+      <c r="H25">
+        <v>-0.01998949832100987</v>
+      </c>
+      <c r="I25">
+        <v>-0.03207477457059525</v>
+      </c>
+      <c r="J25">
+        <v>0.009193521538289489</v>
+      </c>
+      <c r="K25">
+        <v>-0.01432798187718763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.001109395968027779</v>
+        <v>0.02272557611550139</v>
       </c>
       <c r="C26">
-        <v>0.04709643358306561</v>
+        <v>0.05732151609055409</v>
       </c>
       <c r="D26">
-        <v>-0.06790085130155492</v>
+        <v>0.06324311716774048</v>
       </c>
       <c r="E26">
-        <v>-0.006778883637261531</v>
+        <v>0.005583194108283291</v>
       </c>
       <c r="F26">
-        <v>0.03092647385171476</v>
+        <v>0.0157428471457745</v>
       </c>
       <c r="G26">
-        <v>-0.04502501755944367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01166404341540908</v>
+      </c>
+      <c r="H26">
+        <v>-0.08111868558482868</v>
+      </c>
+      <c r="I26">
+        <v>-0.07305727202231219</v>
+      </c>
+      <c r="J26">
+        <v>0.05335837124333601</v>
+      </c>
+      <c r="K26">
+        <v>0.1213475217599759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3658899246373208</v>
+        <v>0.3151285472309724</v>
       </c>
       <c r="C28">
-        <v>-0.0810119412133358</v>
+        <v>-0.1051729177895161</v>
       </c>
       <c r="D28">
-        <v>0.01956366017324441</v>
+        <v>-0.03279578335065142</v>
       </c>
       <c r="E28">
-        <v>0.05651600522178787</v>
+        <v>-0.004185949987314891</v>
       </c>
       <c r="F28">
-        <v>0.0568342775973939</v>
+        <v>-0.0476875170006314</v>
       </c>
       <c r="G28">
-        <v>0.08204861056962662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1088591775753669</v>
+      </c>
+      <c r="H28">
+        <v>-0.06936571869390706</v>
+      </c>
+      <c r="I28">
+        <v>-0.006950722059703944</v>
+      </c>
+      <c r="J28">
+        <v>-0.2144607495987971</v>
+      </c>
+      <c r="K28">
+        <v>0.04069221778490212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008575665161810882</v>
+        <v>0.01507816968829015</v>
       </c>
       <c r="C29">
-        <v>0.07766335005492493</v>
+        <v>0.0834970582307757</v>
       </c>
       <c r="D29">
-        <v>-0.04414398389745398</v>
+        <v>0.05225742484312219</v>
       </c>
       <c r="E29">
-        <v>-0.01679375044794325</v>
+        <v>-0.04818264771314595</v>
       </c>
       <c r="F29">
-        <v>0.01751997837091083</v>
+        <v>-0.007834082321740335</v>
       </c>
       <c r="G29">
-        <v>-0.1240453924962395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1537710872488678</v>
+      </c>
+      <c r="H29">
+        <v>-0.2345957681038225</v>
+      </c>
+      <c r="I29">
+        <v>-0.1401978303892497</v>
+      </c>
+      <c r="J29">
+        <v>-0.01982452684948024</v>
+      </c>
+      <c r="K29">
+        <v>-0.1894643600836312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01861949849931474</v>
+        <v>0.03012751899499629</v>
       </c>
       <c r="C30">
-        <v>0.1678983772349252</v>
+        <v>0.1423184973594993</v>
       </c>
       <c r="D30">
-        <v>-0.06955665314498678</v>
+        <v>0.05630946160786957</v>
       </c>
       <c r="E30">
-        <v>-0.02624900713427069</v>
+        <v>0.0202488320766891</v>
       </c>
       <c r="F30">
-        <v>-0.04870569174885525</v>
+        <v>-0.05858576617851199</v>
       </c>
       <c r="G30">
-        <v>-0.01599748415703677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01252543187625883</v>
+      </c>
+      <c r="H30">
+        <v>-0.04212094448010765</v>
+      </c>
+      <c r="I30">
+        <v>-0.01010359675885488</v>
+      </c>
+      <c r="J30">
+        <v>0.05381665883721178</v>
+      </c>
+      <c r="K30">
+        <v>0.09003594864247708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00273154428428641</v>
+        <v>0.01388512083086247</v>
       </c>
       <c r="C31">
-        <v>0.05425355526600351</v>
+        <v>0.08001435860551202</v>
       </c>
       <c r="D31">
-        <v>-0.03154916694873645</v>
+        <v>0.04147582809129955</v>
       </c>
       <c r="E31">
-        <v>0.02290943310115728</v>
+        <v>-0.001978638827363031</v>
       </c>
       <c r="F31">
-        <v>0.01237773706928715</v>
+        <v>-0.001590181893786861</v>
       </c>
       <c r="G31">
-        <v>-0.02510414297962664</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01824105397149919</v>
+      </c>
+      <c r="H31">
+        <v>-0.02697892728411199</v>
+      </c>
+      <c r="I31">
+        <v>-0.03300028021399872</v>
+      </c>
+      <c r="J31">
+        <v>0.01318522091656475</v>
+      </c>
+      <c r="K31">
+        <v>-0.02095108778972318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01584866121310771</v>
+        <v>0.02157556153607263</v>
       </c>
       <c r="C32">
-        <v>0.08559856663933009</v>
+        <v>0.05232709762054673</v>
       </c>
       <c r="D32">
-        <v>0.002854768893331789</v>
+        <v>0.02506580751207022</v>
       </c>
       <c r="E32">
-        <v>-0.1416099233523225</v>
+        <v>-0.05689165093146132</v>
       </c>
       <c r="F32">
-        <v>-0.005967983749738579</v>
+        <v>-0.1006131698727626</v>
       </c>
       <c r="G32">
-        <v>-0.09448764590551099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.08824548185261674</v>
+      </c>
+      <c r="H32">
+        <v>-0.1459630677283775</v>
+      </c>
+      <c r="I32">
+        <v>-0.04018323949964638</v>
+      </c>
+      <c r="J32">
+        <v>-0.2842911842522028</v>
+      </c>
+      <c r="K32">
+        <v>-0.02700467411868148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01361472602512303</v>
+        <v>0.01691943383555593</v>
       </c>
       <c r="C33">
-        <v>0.08810001464468306</v>
+        <v>0.1045759813615762</v>
       </c>
       <c r="D33">
-        <v>-0.06169784033833833</v>
+        <v>0.0517901105879557</v>
       </c>
       <c r="E33">
-        <v>-0.005644215913387085</v>
+        <v>0.007336052448992807</v>
       </c>
       <c r="F33">
-        <v>0.006573197446979451</v>
+        <v>-0.01417903363537635</v>
       </c>
       <c r="G33">
-        <v>-0.04516939494052943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03248824003251592</v>
+      </c>
+      <c r="H33">
+        <v>-0.04170071244016271</v>
+      </c>
+      <c r="I33">
+        <v>-0.03095126004926291</v>
+      </c>
+      <c r="J33">
+        <v>-0.01223506190713515</v>
+      </c>
+      <c r="K33">
+        <v>0.008329449400815734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0009108286096208287</v>
+        <v>0.01588960675683697</v>
       </c>
       <c r="C34">
-        <v>0.04641907837597389</v>
+        <v>0.04794663115564026</v>
       </c>
       <c r="D34">
-        <v>-0.02004055055042008</v>
+        <v>0.0201191546291266</v>
       </c>
       <c r="E34">
-        <v>0.002966813874447401</v>
+        <v>-0.00582267820741936</v>
       </c>
       <c r="F34">
-        <v>0.01972902175661484</v>
+        <v>0.009325683203885115</v>
       </c>
       <c r="G34">
-        <v>-0.03985616483768686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01681565561031409</v>
+      </c>
+      <c r="H34">
+        <v>0.001299680001414576</v>
+      </c>
+      <c r="I34">
+        <v>-0.01654756463764565</v>
+      </c>
+      <c r="J34">
+        <v>0.01747733423308841</v>
+      </c>
+      <c r="K34">
+        <v>-0.0005404932750463769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003720705889141248</v>
+        <v>0.01053937153497697</v>
       </c>
       <c r="C35">
-        <v>0.02689418816512727</v>
+        <v>0.04561587254540994</v>
       </c>
       <c r="D35">
-        <v>-0.006905344213100136</v>
+        <v>0.02258083388912616</v>
       </c>
       <c r="E35">
-        <v>-0.004496670584457312</v>
+        <v>-0.01142111694057085</v>
       </c>
       <c r="F35">
-        <v>0.002956826251580295</v>
+        <v>-0.005194861834618326</v>
       </c>
       <c r="G35">
-        <v>-0.04068352907032077</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.06501527217865652</v>
+      </c>
+      <c r="H35">
+        <v>-0.1188586283515902</v>
+      </c>
+      <c r="I35">
+        <v>-0.08953339913381186</v>
+      </c>
+      <c r="J35">
+        <v>-0.01995547937641762</v>
+      </c>
+      <c r="K35">
+        <v>-0.1480534207328854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.006209432418315742</v>
+        <v>0.01608824933424362</v>
       </c>
       <c r="C36">
-        <v>0.05021930192977064</v>
+        <v>0.048570523987265</v>
       </c>
       <c r="D36">
-        <v>-0.05454576298087077</v>
+        <v>0.04522310275817968</v>
       </c>
       <c r="E36">
-        <v>0.002252927892586992</v>
+        <v>0.00330808225493912</v>
       </c>
       <c r="F36">
-        <v>0.01113849796036021</v>
+        <v>-0.008516922723547159</v>
       </c>
       <c r="G36">
-        <v>-0.03576072276423105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.007770610191655435</v>
+      </c>
+      <c r="H36">
+        <v>-0.06814721991210723</v>
+      </c>
+      <c r="I36">
+        <v>-0.03629895604553838</v>
+      </c>
+      <c r="J36">
+        <v>0.01951886181338892</v>
+      </c>
+      <c r="K36">
+        <v>0.04579007967587078</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03183810327544234</v>
+        <v>0.01059017868242562</v>
       </c>
       <c r="C38">
-        <v>0.05755288453750292</v>
+        <v>0.0598539362920009</v>
       </c>
       <c r="D38">
-        <v>-0.04751235834555454</v>
+        <v>0.0402413200384748</v>
       </c>
       <c r="E38">
-        <v>0.01932997997148292</v>
+        <v>0.0328041706740984</v>
       </c>
       <c r="F38">
-        <v>-0.006873503465235494</v>
+        <v>-0.0148940120647405</v>
       </c>
       <c r="G38">
-        <v>-0.03893863943972751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01947453831384813</v>
+      </c>
+      <c r="H38">
+        <v>-0.08650827824520745</v>
+      </c>
+      <c r="I38">
+        <v>-0.005603206895464996</v>
+      </c>
+      <c r="J38">
+        <v>-0.0487871225007937</v>
+      </c>
+      <c r="K38">
+        <v>-0.02343022349956182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0002255802957684415</v>
+        <v>0.01828292898873406</v>
       </c>
       <c r="C39">
-        <v>0.1261947421963242</v>
+        <v>0.1312899035937094</v>
       </c>
       <c r="D39">
-        <v>-0.0553839892102584</v>
+        <v>0.05814371111432637</v>
       </c>
       <c r="E39">
-        <v>0.008239824881055496</v>
+        <v>-0.01030878453851228</v>
       </c>
       <c r="F39">
-        <v>0.003194675677742319</v>
+        <v>0.006503979656159816</v>
       </c>
       <c r="G39">
-        <v>-0.08438566697470387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04786158000838127</v>
+      </c>
+      <c r="H39">
+        <v>-0.05179429538353904</v>
+      </c>
+      <c r="I39">
+        <v>-0.003334720799103122</v>
+      </c>
+      <c r="J39">
+        <v>0.08278753193885724</v>
+      </c>
+      <c r="K39">
+        <v>0.03244382454997027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.002120664237832008</v>
+        <v>0.01244072568316375</v>
       </c>
       <c r="C40">
-        <v>0.02916471917394528</v>
+        <v>0.05550325991865579</v>
       </c>
       <c r="D40">
-        <v>-0.02330548575744655</v>
+        <v>0.04200554699285679</v>
       </c>
       <c r="E40">
-        <v>-0.1357740331321596</v>
+        <v>-0.0318933359642879</v>
       </c>
       <c r="F40">
-        <v>-0.05741577485168502</v>
+        <v>-0.03584392385444127</v>
       </c>
       <c r="G40">
-        <v>-0.1006538224314966</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1553531608883098</v>
+      </c>
+      <c r="H40">
+        <v>0.001645239877987594</v>
+      </c>
+      <c r="I40">
+        <v>-0.04600683119978752</v>
+      </c>
+      <c r="J40">
+        <v>-0.02034474794695002</v>
+      </c>
+      <c r="K40">
+        <v>-0.2762775371192313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01213619458877241</v>
+        <v>0.02236205325767207</v>
       </c>
       <c r="C41">
-        <v>0.02311219021090931</v>
+        <v>0.0477168921007694</v>
       </c>
       <c r="D41">
-        <v>-0.006811865539538263</v>
+        <v>0.01702895312664964</v>
       </c>
       <c r="E41">
-        <v>0.01145534345603873</v>
+        <v>-0.0005342947444349304</v>
       </c>
       <c r="F41">
-        <v>0.01744443934081181</v>
+        <v>0.02117397636691641</v>
       </c>
       <c r="G41">
-        <v>0.0318148978517773</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003729547332407752</v>
+      </c>
+      <c r="H41">
+        <v>-0.01992859265513151</v>
+      </c>
+      <c r="I41">
+        <v>-0.00635248725853521</v>
+      </c>
+      <c r="J41">
+        <v>-0.02889634270965949</v>
+      </c>
+      <c r="K41">
+        <v>-0.04262248988961177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003848219718555508</v>
+        <v>0.01826023256078367</v>
       </c>
       <c r="C43">
-        <v>0.02101804182615911</v>
+        <v>0.043578966073919</v>
       </c>
       <c r="D43">
-        <v>-0.02189819310275577</v>
+        <v>0.02952795892472218</v>
       </c>
       <c r="E43">
-        <v>0.003728234775437364</v>
+        <v>0.01012819805775736</v>
       </c>
       <c r="F43">
-        <v>-0.0008943927081040621</v>
+        <v>0.01020114147428135</v>
       </c>
       <c r="G43">
-        <v>-0.009544560376064951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008741776690809527</v>
+      </c>
+      <c r="H43">
+        <v>-0.03882053590260097</v>
+      </c>
+      <c r="I43">
+        <v>-0.006663017519717908</v>
+      </c>
+      <c r="J43">
+        <v>0.00175906038018202</v>
+      </c>
+      <c r="K43">
+        <v>-0.03454567878296463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01906797826441538</v>
+        <v>0.01468105688746515</v>
       </c>
       <c r="C44">
-        <v>0.09675534424957773</v>
+        <v>0.09794044118625851</v>
       </c>
       <c r="D44">
-        <v>-0.03683533748921287</v>
+        <v>0.05759496495418157</v>
       </c>
       <c r="E44">
-        <v>-0.03029432579115934</v>
+        <v>0.03369020464243188</v>
       </c>
       <c r="F44">
-        <v>-0.03178614093148129</v>
+        <v>-0.058795182551948</v>
       </c>
       <c r="G44">
-        <v>-0.06176504086295757</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.05369728012944746</v>
+      </c>
+      <c r="H44">
+        <v>-0.04822650409613248</v>
+      </c>
+      <c r="I44">
+        <v>-0.01287043173413113</v>
+      </c>
+      <c r="J44">
+        <v>0.0507412038338803</v>
+      </c>
+      <c r="K44">
+        <v>0.08014532083331531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.003578793706434793</v>
+        <v>0.003762828700917388</v>
       </c>
       <c r="C46">
-        <v>0.06316988503557763</v>
+        <v>0.06483917018362893</v>
       </c>
       <c r="D46">
-        <v>-0.04665399711080549</v>
+        <v>0.02894581116788992</v>
       </c>
       <c r="E46">
-        <v>-0.01697332984663912</v>
+        <v>-0.007274563692942172</v>
       </c>
       <c r="F46">
-        <v>0.001429236741166148</v>
+        <v>0.006527022286580158</v>
       </c>
       <c r="G46">
-        <v>-0.0722489992240116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0535738984319695</v>
+      </c>
+      <c r="H46">
+        <v>-0.08714350630191874</v>
+      </c>
+      <c r="I46">
+        <v>-0.03375792137599047</v>
+      </c>
+      <c r="J46">
+        <v>-0.003257008429395815</v>
+      </c>
+      <c r="K46">
+        <v>-0.07771879323383273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005724677125455953</v>
+        <v>0.02125690420073119</v>
       </c>
       <c r="C47">
-        <v>0.06529384993823339</v>
+        <v>0.07764903663562661</v>
       </c>
       <c r="D47">
-        <v>-0.0470832357398358</v>
+        <v>0.04280827130834085</v>
       </c>
       <c r="E47">
-        <v>0.02397845185907252</v>
+        <v>-0.005112388492153291</v>
       </c>
       <c r="F47">
-        <v>0.04794498897672546</v>
+        <v>0.01357103299872118</v>
       </c>
       <c r="G47">
-        <v>-0.04961781586901401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02089021653533813</v>
+      </c>
+      <c r="H47">
+        <v>-0.06194377435538269</v>
+      </c>
+      <c r="I47">
+        <v>-0.0272344085658228</v>
+      </c>
+      <c r="J47">
+        <v>-0.02000936828845151</v>
+      </c>
+      <c r="K47">
+        <v>-0.0269377349596161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.005546113193721745</v>
+        <v>0.01999857458558046</v>
       </c>
       <c r="C48">
-        <v>0.05118370001493655</v>
+        <v>0.04971778888618632</v>
       </c>
       <c r="D48">
-        <v>-0.05954943167870643</v>
+        <v>0.05356884463445662</v>
       </c>
       <c r="E48">
-        <v>-0.0005476772156361876</v>
+        <v>0.009049258558238195</v>
       </c>
       <c r="F48">
-        <v>0.005335793490263359</v>
+        <v>-0.003719179399623258</v>
       </c>
       <c r="G48">
-        <v>-0.04440744043236256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01147373850392047</v>
+      </c>
+      <c r="H48">
+        <v>-0.07599416878734412</v>
+      </c>
+      <c r="I48">
+        <v>-0.07029173094959569</v>
+      </c>
+      <c r="J48">
+        <v>0.04225035022543938</v>
+      </c>
+      <c r="K48">
+        <v>0.09928385231763498</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009948971484971585</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.03471231736724151</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.006653342009110851</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.001528670432743286</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.05102870139219935</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.0352951732367667</v>
+      </c>
+      <c r="H49">
+        <v>0.01782223549032917</v>
+      </c>
+      <c r="I49">
+        <v>0.006968407247310145</v>
+      </c>
+      <c r="J49">
+        <v>0.0556274187968581</v>
+      </c>
+      <c r="K49">
+        <v>0.03893894873461528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0009416454434594606</v>
+        <v>0.01439990289839249</v>
       </c>
       <c r="C50">
-        <v>0.06775430303903246</v>
+        <v>0.07836015317063109</v>
       </c>
       <c r="D50">
-        <v>-0.02780347208769373</v>
+        <v>0.03084330141031456</v>
       </c>
       <c r="E50">
-        <v>0.01098662286731454</v>
+        <v>0.00900017168480457</v>
       </c>
       <c r="F50">
-        <v>-0.004986678877842724</v>
+        <v>-0.00996122874447798</v>
       </c>
       <c r="G50">
-        <v>-0.03987493390732257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>3.238316593914698e-05</v>
+      </c>
+      <c r="H50">
+        <v>-0.04177449334980787</v>
+      </c>
+      <c r="I50">
+        <v>-0.04283559730050682</v>
+      </c>
+      <c r="J50">
+        <v>-0.04456357061445403</v>
+      </c>
+      <c r="K50">
+        <v>-0.01028653937037427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.001759125759603499</v>
+        <v>-0.005562213924179847</v>
       </c>
       <c r="C51">
-        <v>0.07135849420546644</v>
+        <v>0.03550935236962668</v>
       </c>
       <c r="D51">
-        <v>-0.04222255877709503</v>
+        <v>0.02257442480164412</v>
       </c>
       <c r="E51">
-        <v>-0.05311660139361771</v>
+        <v>-0.009805333934030908</v>
       </c>
       <c r="F51">
-        <v>-0.000814776096212247</v>
+        <v>-0.02261907071181556</v>
       </c>
       <c r="G51">
-        <v>-0.02720960039064923</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03760752301446328</v>
+      </c>
+      <c r="H51">
+        <v>-0.09844429953154606</v>
+      </c>
+      <c r="I51">
+        <v>-0.03105244613281919</v>
+      </c>
+      <c r="J51">
+        <v>0.01413953796221043</v>
+      </c>
+      <c r="K51">
+        <v>0.09798267575510097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03078942618294733</v>
+        <v>0.05683338194404292</v>
       </c>
       <c r="C53">
-        <v>0.1200903448964288</v>
+        <v>0.1313655272360692</v>
       </c>
       <c r="D53">
-        <v>-0.07455091272723553</v>
+        <v>0.06051537323497278</v>
       </c>
       <c r="E53">
-        <v>0.1296344700284354</v>
+        <v>-0.01896307619534839</v>
       </c>
       <c r="F53">
-        <v>0.06114699538112116</v>
+        <v>0.0673969946083041</v>
       </c>
       <c r="G53">
-        <v>0.06149140738896065</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08961330608860527</v>
+      </c>
+      <c r="H53">
+        <v>0.02739280780596392</v>
+      </c>
+      <c r="I53">
+        <v>-0.008587353654209016</v>
+      </c>
+      <c r="J53">
+        <v>-0.03355277849160961</v>
+      </c>
+      <c r="K53">
+        <v>-0.005862045316295389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.00544942434031559</v>
+        <v>0.01715277984857339</v>
       </c>
       <c r="C54">
-        <v>0.06587948499129713</v>
+        <v>0.07229444046580535</v>
       </c>
       <c r="D54">
-        <v>-0.009804352116103959</v>
+        <v>0.01391095929682561</v>
       </c>
       <c r="E54">
-        <v>0.02450609886246959</v>
+        <v>-0.004513857809212777</v>
       </c>
       <c r="F54">
-        <v>-0.005927039829844809</v>
+        <v>0.01370877591978096</v>
       </c>
       <c r="G54">
-        <v>-0.02849012761220984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02417402494218474</v>
+      </c>
+      <c r="H54">
+        <v>-0.02782570057889274</v>
+      </c>
+      <c r="I54">
+        <v>-0.05099271376040467</v>
+      </c>
+      <c r="J54">
+        <v>0.02406389556722603</v>
+      </c>
+      <c r="K54">
+        <v>-0.0005378277696431843</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01863067676835115</v>
+        <v>0.03067142418982399</v>
       </c>
       <c r="C55">
-        <v>0.07784489308031189</v>
+        <v>0.08493764119397525</v>
       </c>
       <c r="D55">
-        <v>-0.06612020663647315</v>
+        <v>0.05587293724665117</v>
       </c>
       <c r="E55">
-        <v>0.06189471599129293</v>
+        <v>-0.008807526914831594</v>
       </c>
       <c r="F55">
-        <v>0.04120088083030891</v>
+        <v>0.04905299253426923</v>
       </c>
       <c r="G55">
-        <v>0.009691235874613175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.04126494516352439</v>
+      </c>
+      <c r="H55">
+        <v>0.01972847492085296</v>
+      </c>
+      <c r="I55">
+        <v>-0.01116760123578449</v>
+      </c>
+      <c r="J55">
+        <v>0.01331923340836553</v>
+      </c>
+      <c r="K55">
+        <v>-0.0008732267550209059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01748282892692838</v>
+        <v>0.04451811621041944</v>
       </c>
       <c r="C56">
-        <v>0.1510646518781507</v>
+        <v>0.149843151290925</v>
       </c>
       <c r="D56">
-        <v>-0.08071024634508779</v>
+        <v>0.08606364251127141</v>
       </c>
       <c r="E56">
-        <v>0.1076477979740389</v>
+        <v>-0.05094996414651486</v>
       </c>
       <c r="F56">
-        <v>0.08808778386944247</v>
+        <v>0.08929820605119661</v>
       </c>
       <c r="G56">
-        <v>0.1127656005858201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1713978719304605</v>
+      </c>
+      <c r="H56">
+        <v>0.03017476539635626</v>
+      </c>
+      <c r="I56">
+        <v>-0.01513321407418962</v>
+      </c>
+      <c r="J56">
+        <v>-0.01229240198591166</v>
+      </c>
+      <c r="K56">
+        <v>0.02096465126246149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02229689325886512</v>
+        <v>0.02050521025613086</v>
       </c>
       <c r="C58">
-        <v>0.2986128997924338</v>
+        <v>0.1822830040683114</v>
       </c>
       <c r="D58">
-        <v>0.01234528891494367</v>
+        <v>0.04099553590889234</v>
       </c>
       <c r="E58">
-        <v>-0.154425252906682</v>
+        <v>0.06277007274281599</v>
       </c>
       <c r="F58">
-        <v>-0.255593591202507</v>
+        <v>-0.3077360065462159</v>
       </c>
       <c r="G58">
-        <v>0.08767171962742719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.06906482926690832</v>
+      </c>
+      <c r="H58">
+        <v>-0.09672469314420089</v>
+      </c>
+      <c r="I58">
+        <v>0.03107472755926154</v>
+      </c>
+      <c r="J58">
+        <v>-0.03231495113809808</v>
+      </c>
+      <c r="K58">
+        <v>0.3561082666016385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2862139840263022</v>
+        <v>0.2896888872976336</v>
       </c>
       <c r="C59">
-        <v>-0.0008758845214837961</v>
+        <v>-0.04388779361714846</v>
       </c>
       <c r="D59">
-        <v>0.01169910417531875</v>
+        <v>-0.006334045581085673</v>
       </c>
       <c r="E59">
-        <v>-0.05597184518025818</v>
+        <v>-0.01601244115032669</v>
       </c>
       <c r="F59">
-        <v>0.04862091002245254</v>
+        <v>-0.04573554685265405</v>
       </c>
       <c r="G59">
-        <v>0.006381798965811997</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0007098641915732031</v>
+      </c>
+      <c r="H59">
+        <v>0.01494958090904474</v>
+      </c>
+      <c r="I59">
+        <v>0.02343269827846764</v>
+      </c>
+      <c r="J59">
+        <v>-0.02822333554175118</v>
+      </c>
+      <c r="K59">
+        <v>-0.02325706024016306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1081500119756175</v>
+        <v>0.1450972201088732</v>
       </c>
       <c r="C60">
-        <v>0.1367942916733937</v>
+        <v>0.1537697169527545</v>
       </c>
       <c r="D60">
-        <v>-0.07906939900196212</v>
+        <v>0.04736030988219172</v>
       </c>
       <c r="E60">
-        <v>0.07380545344332477</v>
+        <v>-0.04685337351296878</v>
       </c>
       <c r="F60">
-        <v>0.1407715721863495</v>
+        <v>0.1191949487737957</v>
       </c>
       <c r="G60">
-        <v>-0.2508265361108556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2204674881271119</v>
+      </c>
+      <c r="H60">
+        <v>0.2480407264866681</v>
+      </c>
+      <c r="I60">
+        <v>0.09766369465705886</v>
+      </c>
+      <c r="J60">
+        <v>0.0294094983770185</v>
+      </c>
+      <c r="K60">
+        <v>0.04000699529635287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.0006861219697141132</v>
+        <v>0.02060000426867441</v>
       </c>
       <c r="C61">
-        <v>0.08212409292103724</v>
+        <v>0.0969100318297693</v>
       </c>
       <c r="D61">
-        <v>-0.06288543320461845</v>
+        <v>0.05520259644186463</v>
       </c>
       <c r="E61">
-        <v>0.02869426142256827</v>
+        <v>-0.008335215252228063</v>
       </c>
       <c r="F61">
-        <v>0.02116800535840217</v>
+        <v>0.02516635191093673</v>
       </c>
       <c r="G61">
-        <v>-0.08343344721493108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03249831483183802</v>
+      </c>
+      <c r="H61">
+        <v>-0.03876752310763959</v>
+      </c>
+      <c r="I61">
+        <v>-0.04609122014031231</v>
+      </c>
+      <c r="J61">
+        <v>0.02979866571047647</v>
+      </c>
+      <c r="K61">
+        <v>-0.01116424139468823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.003020327875118392</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01343991770212973</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003310122507267494</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01113429342498724</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01683466809749182</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01696959833821339</v>
+      </c>
+      <c r="H62">
+        <v>0.01614464296442407</v>
+      </c>
+      <c r="I62">
+        <v>-0.05309096638274961</v>
+      </c>
+      <c r="J62">
+        <v>-0.01370005007980219</v>
+      </c>
+      <c r="K62">
+        <v>-0.0007791691283221636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0008593173384747501</v>
+        <v>0.02629252556732693</v>
       </c>
       <c r="C63">
-        <v>0.05849481102345788</v>
+        <v>0.0655631135062419</v>
       </c>
       <c r="D63">
-        <v>-0.04595361600258668</v>
+        <v>0.05916312289958064</v>
       </c>
       <c r="E63">
-        <v>0.02963876447962083</v>
+        <v>-0.006447720362301539</v>
       </c>
       <c r="F63">
-        <v>0.002275558344226994</v>
+        <v>0.01191401621367205</v>
       </c>
       <c r="G63">
-        <v>-0.03299304734184014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.008167386034806859</v>
+      </c>
+      <c r="H63">
+        <v>-0.04085742715980618</v>
+      </c>
+      <c r="I63">
+        <v>-0.0561033391017688</v>
+      </c>
+      <c r="J63">
+        <v>0.01572615866916713</v>
+      </c>
+      <c r="K63">
+        <v>-0.007386859859997391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.003277319709313947</v>
+        <v>0.01371564899544913</v>
       </c>
       <c r="C64">
-        <v>0.07792381441298209</v>
+        <v>0.08980157484173747</v>
       </c>
       <c r="D64">
-        <v>-0.06671431209276887</v>
+        <v>0.03264467023702614</v>
       </c>
       <c r="E64">
-        <v>-0.001764705739205001</v>
+        <v>0.0297957140923286</v>
       </c>
       <c r="F64">
-        <v>-0.01384459175288344</v>
+        <v>-0.03318409108686788</v>
       </c>
       <c r="G64">
-        <v>-0.06811636906772933</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07373345384298814</v>
+      </c>
+      <c r="H64">
+        <v>-0.02208383036403956</v>
+      </c>
+      <c r="I64">
+        <v>-0.05855858229085468</v>
+      </c>
+      <c r="J64">
+        <v>0.03922629173019414</v>
+      </c>
+      <c r="K64">
+        <v>-0.01845982625324061</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.008014196533908415</v>
+        <v>0.03066668491019157</v>
       </c>
       <c r="C65">
-        <v>0.08032343550742821</v>
+        <v>0.09269442932907702</v>
       </c>
       <c r="D65">
-        <v>-0.03397121619271222</v>
+        <v>0.02251387795936167</v>
       </c>
       <c r="E65">
-        <v>-0.02526042841921456</v>
+        <v>0.0167061115944389</v>
       </c>
       <c r="F65">
-        <v>-0.02039718686031034</v>
+        <v>-0.001150516310376013</v>
       </c>
       <c r="G65">
-        <v>-0.02842930601784701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08100919056919977</v>
+      </c>
+      <c r="H65">
+        <v>-0.00297504858709601</v>
+      </c>
+      <c r="I65">
+        <v>0.03247584960250409</v>
+      </c>
+      <c r="J65">
+        <v>0.09202601069588026</v>
+      </c>
+      <c r="K65">
+        <v>0.08149669594793989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.001658023711404706</v>
+        <v>0.01453343315035494</v>
       </c>
       <c r="C66">
-        <v>0.1708076872246125</v>
+        <v>0.1682642143537613</v>
       </c>
       <c r="D66">
-        <v>-0.04654683280151868</v>
+        <v>0.04969019855300361</v>
       </c>
       <c r="E66">
-        <v>-0.0334195500661427</v>
+        <v>-0.01636527563794872</v>
       </c>
       <c r="F66">
-        <v>0.01741907246114082</v>
+        <v>-0.008834152488026902</v>
       </c>
       <c r="G66">
-        <v>-0.1074559489597385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03793268963240307</v>
+      </c>
+      <c r="H66">
+        <v>-0.05792420173326879</v>
+      </c>
+      <c r="I66">
+        <v>-0.02563431093471527</v>
+      </c>
+      <c r="J66">
+        <v>0.05571379491743478</v>
+      </c>
+      <c r="K66">
+        <v>0.02706770588506628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03167394565690058</v>
+        <v>0.01914411222192148</v>
       </c>
       <c r="C67">
-        <v>0.03225397660741133</v>
+        <v>0.05070564142555413</v>
       </c>
       <c r="D67">
-        <v>-0.06258904808658884</v>
+        <v>0.04149949804523115</v>
       </c>
       <c r="E67">
-        <v>0.04912956667392161</v>
+        <v>0.02588459966219247</v>
       </c>
       <c r="F67">
-        <v>0.002386319449206806</v>
+        <v>0.02110814010976001</v>
       </c>
       <c r="G67">
-        <v>-0.04661459814591309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.04229709931476674</v>
+      </c>
+      <c r="H67">
+        <v>-0.0621544305513863</v>
+      </c>
+      <c r="I67">
+        <v>0.01087494629309535</v>
+      </c>
+      <c r="J67">
+        <v>-0.04199702238170426</v>
+      </c>
+      <c r="K67">
+        <v>-0.03820930070431794</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2946419974895469</v>
+        <v>0.2956182052926831</v>
       </c>
       <c r="C68">
-        <v>-0.02466028592600331</v>
+        <v>-0.06746660550294485</v>
       </c>
       <c r="D68">
-        <v>-0.003337549704367429</v>
+        <v>-0.02373673978990601</v>
       </c>
       <c r="E68">
-        <v>-0.03404503376434993</v>
+        <v>-0.003860875625309184</v>
       </c>
       <c r="F68">
-        <v>0.007272315941605402</v>
+        <v>-0.04042969391513488</v>
       </c>
       <c r="G68">
-        <v>-0.006737141761039987</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01887392559756657</v>
+      </c>
+      <c r="H68">
+        <v>-0.007619978629369919</v>
+      </c>
+      <c r="I68">
+        <v>-0.0588089588785948</v>
+      </c>
+      <c r="J68">
+        <v>-0.04178717011055478</v>
+      </c>
+      <c r="K68">
+        <v>0.01493250161084029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.006619791423036151</v>
+        <v>0.007461128363440315</v>
       </c>
       <c r="C69">
-        <v>0.04222597814960267</v>
+        <v>0.04696195788613347</v>
       </c>
       <c r="D69">
-        <v>-0.05488395152446934</v>
+        <v>0.02553277367831815</v>
       </c>
       <c r="E69">
-        <v>0.0210816862410891</v>
+        <v>-0.005995503053407623</v>
       </c>
       <c r="F69">
-        <v>-0.006186178565806387</v>
+        <v>0.01233270712378262</v>
       </c>
       <c r="G69">
-        <v>-0.02299548708427241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02960743195688587</v>
+      </c>
+      <c r="H69">
+        <v>-0.02776781896852496</v>
+      </c>
+      <c r="I69">
+        <v>-0.01212129893470295</v>
+      </c>
+      <c r="J69">
+        <v>-0.01827596789695666</v>
+      </c>
+      <c r="K69">
+        <v>-0.001309977103573891</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2860357275921217</v>
+        <v>0.2774109305509405</v>
       </c>
       <c r="C71">
-        <v>-0.03919968436674965</v>
+        <v>-0.07306116755733305</v>
       </c>
       <c r="D71">
-        <v>0.003753139857420895</v>
+        <v>-0.02294928583841664</v>
       </c>
       <c r="E71">
-        <v>-0.0251149427451137</v>
+        <v>0.01777385893321195</v>
       </c>
       <c r="F71">
-        <v>-0.009306146429339517</v>
+        <v>-0.06154629773508994</v>
       </c>
       <c r="G71">
-        <v>-0.00721672837957266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01697403900208201</v>
+      </c>
+      <c r="H71">
+        <v>-0.04524339812654159</v>
+      </c>
+      <c r="I71">
+        <v>-0.02806002235913958</v>
+      </c>
+      <c r="J71">
+        <v>-0.1181620617369058</v>
+      </c>
+      <c r="K71">
+        <v>0.04571493146029954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01716881289640847</v>
+        <v>0.05474890329548439</v>
       </c>
       <c r="C72">
-        <v>0.1516474438835909</v>
+        <v>0.1417991374858756</v>
       </c>
       <c r="D72">
-        <v>-0.0606020329611203</v>
+        <v>0.05182677367507429</v>
       </c>
       <c r="E72">
-        <v>0.02356516791234933</v>
+        <v>-0.01962410717297557</v>
       </c>
       <c r="F72">
-        <v>-0.06442817840715323</v>
+        <v>0.03683644999564131</v>
       </c>
       <c r="G72">
-        <v>-0.1058087591309859</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.007555892978766261</v>
+      </c>
+      <c r="H72">
+        <v>-0.00763543482496234</v>
+      </c>
+      <c r="I72">
+        <v>-0.0489343291259134</v>
+      </c>
+      <c r="J72">
+        <v>0.1148321597679508</v>
+      </c>
+      <c r="K72">
+        <v>0.04585120405011821</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07061650336358194</v>
+        <v>0.1496081042517513</v>
       </c>
       <c r="C73">
-        <v>0.1032877440852779</v>
+        <v>0.1980724600715761</v>
       </c>
       <c r="D73">
-        <v>-0.1113788051035507</v>
+        <v>0.08783299728765813</v>
       </c>
       <c r="E73">
-        <v>0.1723154890655993</v>
+        <v>-0.03349607055338957</v>
       </c>
       <c r="F73">
-        <v>0.1631499443970612</v>
+        <v>0.2456724151770863</v>
       </c>
       <c r="G73">
-        <v>-0.3378934226530635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.34532724749566</v>
+      </c>
+      <c r="H73">
+        <v>0.312390638479587</v>
+      </c>
+      <c r="I73">
+        <v>0.1530882799056876</v>
+      </c>
+      <c r="J73">
+        <v>-0.07605325520017202</v>
+      </c>
+      <c r="K73">
+        <v>0.08616461196969903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.008154361322329384</v>
+        <v>0.0379864106235973</v>
       </c>
       <c r="C74">
-        <v>0.08222144785000006</v>
+        <v>0.09962758959580247</v>
       </c>
       <c r="D74">
-        <v>-0.0786385694139583</v>
+        <v>0.04860790636280058</v>
       </c>
       <c r="E74">
-        <v>0.07390749242276648</v>
+        <v>0.009356293212105408</v>
       </c>
       <c r="F74">
-        <v>0.05093449167719358</v>
+        <v>0.03442655195227105</v>
       </c>
       <c r="G74">
-        <v>0.03153861115584382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04736511841864904</v>
+      </c>
+      <c r="H74">
+        <v>0.01225366773969108</v>
+      </c>
+      <c r="I74">
+        <v>-0.03189396109600833</v>
+      </c>
+      <c r="J74">
+        <v>0.003127493977692717</v>
+      </c>
+      <c r="K74">
+        <v>0.04199424626014323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.04544633185543621</v>
+        <v>0.06302379457931612</v>
       </c>
       <c r="C75">
-        <v>0.1361058301058679</v>
+        <v>0.1631943810768802</v>
       </c>
       <c r="D75">
-        <v>-0.09646696332208644</v>
+        <v>0.08950339762339209</v>
       </c>
       <c r="E75">
-        <v>0.1677547919623015</v>
+        <v>0.03412004330761029</v>
       </c>
       <c r="F75">
-        <v>0.05092585240762169</v>
+        <v>0.1116710777446752</v>
       </c>
       <c r="G75">
-        <v>0.1841805343609124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2321495042970824</v>
+      </c>
+      <c r="H75">
+        <v>0.01158386744218847</v>
+      </c>
+      <c r="I75">
+        <v>-0.02467378493737533</v>
+      </c>
+      <c r="J75">
+        <v>-0.1246315526477835</v>
+      </c>
+      <c r="K75">
+        <v>-0.08957188675583741</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.0171107073166053</v>
+        <v>0.04085090220498946</v>
       </c>
       <c r="C76">
-        <v>0.1002693907874382</v>
+        <v>0.1219017768911701</v>
       </c>
       <c r="D76">
-        <v>-0.07179946782020163</v>
+        <v>0.07609337771690143</v>
       </c>
       <c r="E76">
-        <v>0.0864545994342717</v>
+        <v>-0.01460578467552412</v>
       </c>
       <c r="F76">
-        <v>0.0640609242442243</v>
+        <v>0.08137168819557852</v>
       </c>
       <c r="G76">
-        <v>0.0392839525418135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.0831322837575629</v>
+      </c>
+      <c r="H76">
+        <v>0.0230599635383985</v>
+      </c>
+      <c r="I76">
+        <v>-0.03877367399663877</v>
+      </c>
+      <c r="J76">
+        <v>0.02482122814141155</v>
+      </c>
+      <c r="K76">
+        <v>-0.01653450136320773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08619823776087045</v>
+        <v>0.05078887963686238</v>
       </c>
       <c r="C77">
-        <v>0.3759720340237493</v>
+        <v>0.4093637111915693</v>
       </c>
       <c r="D77">
-        <v>0.827000823038664</v>
+        <v>-0.8951730993564343</v>
       </c>
       <c r="E77">
-        <v>0.3008584528216316</v>
+        <v>0.02167930898932362</v>
       </c>
       <c r="F77">
-        <v>0.1067888007765622</v>
+        <v>0.08721206499010059</v>
       </c>
       <c r="G77">
-        <v>-0.03467593121413258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03601237910783809</v>
+      </c>
+      <c r="H77">
+        <v>-0.02591179112283893</v>
+      </c>
+      <c r="I77">
+        <v>-0.06815258584457799</v>
+      </c>
+      <c r="J77">
+        <v>-0.009133113955576378</v>
+      </c>
+      <c r="K77">
+        <v>-0.002444878346874911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02382702448597001</v>
+        <v>0.03440039005852374</v>
       </c>
       <c r="C78">
-        <v>0.1284644462321453</v>
+        <v>0.1138354153057814</v>
       </c>
       <c r="D78">
-        <v>-0.1855359268692035</v>
+        <v>0.09535367104025111</v>
       </c>
       <c r="E78">
-        <v>-0.1058525030829684</v>
+        <v>-0.0382289844267215</v>
       </c>
       <c r="F78">
-        <v>0.1430848865122405</v>
+        <v>0.0001736596338729077</v>
       </c>
       <c r="G78">
-        <v>0.09410520999628244</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1027105647580748</v>
+      </c>
+      <c r="H78">
+        <v>-0.1045466300894228</v>
+      </c>
+      <c r="I78">
+        <v>0.03549396071817543</v>
+      </c>
+      <c r="J78">
+        <v>0.07994627073191478</v>
+      </c>
+      <c r="K78">
+        <v>0.4071897160302337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02472947543873063</v>
+        <v>0.05442363161955136</v>
       </c>
       <c r="C79">
-        <v>0.1632586472440071</v>
+        <v>0.1443045412145885</v>
       </c>
       <c r="D79">
-        <v>-0.1260817079080872</v>
+        <v>0.07250377245752475</v>
       </c>
       <c r="E79">
-        <v>0.1139154572464598</v>
+        <v>-0.01855557135277959</v>
       </c>
       <c r="F79">
-        <v>0.1010381561317703</v>
+        <v>0.06220498466021595</v>
       </c>
       <c r="G79">
-        <v>0.2215989508858703</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2306903274115396</v>
+      </c>
+      <c r="H79">
+        <v>-0.02393302149713191</v>
+      </c>
+      <c r="I79">
+        <v>-0.03415229740342549</v>
+      </c>
+      <c r="J79">
+        <v>-0.07831093527754951</v>
+      </c>
+      <c r="K79">
+        <v>0.05809603891079659</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.009621739767688531</v>
+        <v>0.02055167449153465</v>
       </c>
       <c r="C80">
-        <v>0.05234260836865609</v>
+        <v>0.04559609749464878</v>
       </c>
       <c r="D80">
-        <v>-0.05410977418437713</v>
+        <v>0.03928881830388407</v>
       </c>
       <c r="E80">
-        <v>-0.0354392779142691</v>
+        <v>-0.04764988357286899</v>
       </c>
       <c r="F80">
-        <v>0.01501126741253895</v>
+        <v>-0.02721055335243844</v>
       </c>
       <c r="G80">
-        <v>-0.003799575955010354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.07249251364500998</v>
+      </c>
+      <c r="H80">
+        <v>0.01659591986363762</v>
+      </c>
+      <c r="I80">
+        <v>0.06339078526587888</v>
+      </c>
+      <c r="J80">
+        <v>-0.02594910291485035</v>
+      </c>
+      <c r="K80">
+        <v>-0.0595672870426693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006660496763487258</v>
+        <v>0.01753962679739376</v>
       </c>
       <c r="C81">
-        <v>0.06956681168080363</v>
+        <v>0.09712765382096199</v>
       </c>
       <c r="D81">
-        <v>-0.08102552681747577</v>
+        <v>0.05935912662673978</v>
       </c>
       <c r="E81">
-        <v>0.08155429707754697</v>
+        <v>-0.01724218818315196</v>
       </c>
       <c r="F81">
-        <v>0.06391305260722645</v>
+        <v>0.04320358390176367</v>
       </c>
       <c r="G81">
-        <v>0.0659262956905857</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1036039699190359</v>
+      </c>
+      <c r="H81">
+        <v>-0.04288714885870307</v>
+      </c>
+      <c r="I81">
+        <v>-0.03637646983889678</v>
+      </c>
+      <c r="J81">
+        <v>-0.05193823446401586</v>
+      </c>
+      <c r="K81">
+        <v>-0.01240521677073423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01997586038070225</v>
+        <v>0.04388330135199851</v>
       </c>
       <c r="C82">
-        <v>0.0738209596895847</v>
+        <v>0.1024167054233236</v>
       </c>
       <c r="D82">
-        <v>-0.07811143374956329</v>
+        <v>0.06643323740691567</v>
       </c>
       <c r="E82">
-        <v>0.1017447065329148</v>
+        <v>-0.02157213622779282</v>
       </c>
       <c r="F82">
-        <v>0.0564603341116368</v>
+        <v>0.07204916891723269</v>
       </c>
       <c r="G82">
-        <v>0.0335687277803821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08615400953505774</v>
+      </c>
+      <c r="H82">
+        <v>-0.01250623842852201</v>
+      </c>
+      <c r="I82">
+        <v>-0.01050372613600202</v>
+      </c>
+      <c r="J82">
+        <v>-0.001838017199830119</v>
+      </c>
+      <c r="K82">
+        <v>0.009322707554535755</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0003653301450365411</v>
+        <v>-0.001312995182552807</v>
       </c>
       <c r="C83">
-        <v>0.03231778802265151</v>
+        <v>-0.02226425303608746</v>
       </c>
       <c r="D83">
-        <v>0.1468934227242475</v>
+        <v>-0.0587397024445622</v>
       </c>
       <c r="E83">
-        <v>-0.5647200987709834</v>
+        <v>-0.946011138854478</v>
       </c>
       <c r="F83">
-        <v>0.7096004789590558</v>
+        <v>-0.1755097627793516</v>
       </c>
       <c r="G83">
-        <v>0.1138814393105458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0500522731356834</v>
+      </c>
+      <c r="H83">
+        <v>0.05801495700695047</v>
+      </c>
+      <c r="I83">
+        <v>0.04916930859359671</v>
+      </c>
+      <c r="J83">
+        <v>0.08275151218764391</v>
+      </c>
+      <c r="K83">
+        <v>0.02937734618010875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.006698235411977759</v>
+        <v>-0.001764420641235666</v>
       </c>
       <c r="C84">
-        <v>0.07778268578538203</v>
+        <v>0.04961409150061578</v>
       </c>
       <c r="D84">
-        <v>-0.04206752913516679</v>
+        <v>0.06259101395964552</v>
       </c>
       <c r="E84">
-        <v>-0.07249056222275317</v>
+        <v>0.03061963899120114</v>
       </c>
       <c r="F84">
-        <v>-0.1484733823538004</v>
+        <v>-0.08702716982378075</v>
       </c>
       <c r="G84">
-        <v>0.01984182517214718</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.02067894483140182</v>
+      </c>
+      <c r="H84">
+        <v>-0.08861972811400934</v>
+      </c>
+      <c r="I84">
+        <v>-0.0383718864269068</v>
+      </c>
+      <c r="J84">
+        <v>0.1496153044131222</v>
+      </c>
+      <c r="K84">
+        <v>-0.02699915155833229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.001300282996436444</v>
+        <v>0.02885095540816085</v>
       </c>
       <c r="C85">
-        <v>0.1141020429746947</v>
+        <v>0.1160171397495884</v>
       </c>
       <c r="D85">
-        <v>-0.08714922410558358</v>
+        <v>0.08484071744726915</v>
       </c>
       <c r="E85">
-        <v>0.1199849693671521</v>
+        <v>-0.02532581478619454</v>
       </c>
       <c r="F85">
-        <v>0.09794414404894218</v>
+        <v>0.1254098025320659</v>
       </c>
       <c r="G85">
-        <v>0.1769181822787779</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.227225157676707</v>
+      </c>
+      <c r="H85">
+        <v>0.03457821130172564</v>
+      </c>
+      <c r="I85">
+        <v>-0.05370915650042041</v>
+      </c>
+      <c r="J85">
+        <v>-0.06621886620810637</v>
+      </c>
+      <c r="K85">
+        <v>-0.02145700138475369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02136762777783623</v>
+        <v>0.01679915508770253</v>
       </c>
       <c r="C86">
-        <v>0.07520987202591488</v>
+        <v>0.08283828355432957</v>
       </c>
       <c r="D86">
-        <v>0.008112659958792696</v>
+        <v>0.03233763210139261</v>
       </c>
       <c r="E86">
-        <v>-0.01429294824287429</v>
+        <v>0.005443675671134663</v>
       </c>
       <c r="F86">
-        <v>-0.03260301268560017</v>
+        <v>-0.06901766920815906</v>
       </c>
       <c r="G86">
-        <v>-0.07547555068834437</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.04129277479442575</v>
+      </c>
+      <c r="H86">
+        <v>-0.06389118032937577</v>
+      </c>
+      <c r="I86">
+        <v>0.1463617925279271</v>
+      </c>
+      <c r="J86">
+        <v>-0.120035423145455</v>
+      </c>
+      <c r="K86">
+        <v>0.1680147561571168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02170027546154527</v>
+        <v>0.02571287734283684</v>
       </c>
       <c r="C87">
-        <v>0.1481754434697026</v>
+        <v>0.1207424871707408</v>
       </c>
       <c r="D87">
-        <v>-0.04461067163673945</v>
+        <v>0.0240810548873308</v>
       </c>
       <c r="E87">
-        <v>-0.09869708334395415</v>
+        <v>0.002439025464773691</v>
       </c>
       <c r="F87">
-        <v>-0.04750759766038198</v>
+        <v>-0.05549864052734305</v>
       </c>
       <c r="G87">
-        <v>-0.001389260365389847</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.003579489047074223</v>
+      </c>
+      <c r="H87">
+        <v>-0.02331423701223339</v>
+      </c>
+      <c r="I87">
+        <v>-0.04461118132101165</v>
+      </c>
+      <c r="J87">
+        <v>0.09105433089614098</v>
+      </c>
+      <c r="K87">
+        <v>0.05648632119212361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.009132810689235292</v>
+        <v>0.0387363623236506</v>
       </c>
       <c r="C88">
-        <v>0.03520742237793321</v>
+        <v>0.05926493951078356</v>
       </c>
       <c r="D88">
-        <v>-0.04025888972705759</v>
+        <v>0.04254868704036735</v>
       </c>
       <c r="E88">
-        <v>0.05559119305086431</v>
+        <v>0.006627366396372626</v>
       </c>
       <c r="F88">
-        <v>0.003733007815305617</v>
+        <v>0.01669842087674614</v>
       </c>
       <c r="G88">
-        <v>-0.007187187180808115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01894401552379824</v>
+      </c>
+      <c r="H88">
+        <v>0.01765625667249317</v>
+      </c>
+      <c r="I88">
+        <v>-0.01272172399774364</v>
+      </c>
+      <c r="J88">
+        <v>-0.01187282328550686</v>
+      </c>
+      <c r="K88">
+        <v>-0.07148304277288765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4032803727936969</v>
+        <v>0.3925840379831287</v>
       </c>
       <c r="C89">
-        <v>-0.0694980174799231</v>
+        <v>-0.1136114994246106</v>
       </c>
       <c r="D89">
-        <v>-0.06586077673543103</v>
+        <v>-0.03714230103158172</v>
       </c>
       <c r="E89">
-        <v>-0.06057441157270257</v>
+        <v>0.04450971041094057</v>
       </c>
       <c r="F89">
-        <v>-0.1005424109720049</v>
+        <v>-0.05080243296566365</v>
       </c>
       <c r="G89">
-        <v>0.05108116944594079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03652951570816516</v>
+      </c>
+      <c r="H89">
+        <v>-0.02215214950621321</v>
+      </c>
+      <c r="I89">
+        <v>-0.01556589836776536</v>
+      </c>
+      <c r="J89">
+        <v>0.7225647666060407</v>
+      </c>
+      <c r="K89">
+        <v>-0.07820395603005767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.308275650642811</v>
+        <v>0.3162186563782451</v>
       </c>
       <c r="C90">
-        <v>-0.02136389977592797</v>
+        <v>-0.07320692518145662</v>
       </c>
       <c r="D90">
-        <v>0.005263437125985908</v>
+        <v>-0.01886717846746557</v>
       </c>
       <c r="E90">
-        <v>-0.0784959609455055</v>
+        <v>-0.005492219605181538</v>
       </c>
       <c r="F90">
-        <v>0.03833571922379238</v>
+        <v>-0.03915458965866869</v>
       </c>
       <c r="G90">
-        <v>-0.03251041819455195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>9.566449668117566e-05</v>
+      </c>
+      <c r="H90">
+        <v>-0.02023843265647768</v>
+      </c>
+      <c r="I90">
+        <v>-0.002785565407240795</v>
+      </c>
+      <c r="J90">
+        <v>-0.08116466895268069</v>
+      </c>
+      <c r="K90">
+        <v>0.0192013375270043</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02467501806546958</v>
+        <v>0.05326066982920657</v>
       </c>
       <c r="C91">
-        <v>0.0765072000958127</v>
+        <v>0.07761547993815494</v>
       </c>
       <c r="D91">
-        <v>-0.07047473587642791</v>
+        <v>0.05532875222111978</v>
       </c>
       <c r="E91">
-        <v>0.06238479664038417</v>
+        <v>-0.0428874417117621</v>
       </c>
       <c r="F91">
-        <v>0.06156042082025504</v>
+        <v>0.04412879577497942</v>
       </c>
       <c r="G91">
-        <v>0.06863686930308753</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0932877063623061</v>
+      </c>
+      <c r="H91">
+        <v>0.0404100083746874</v>
+      </c>
+      <c r="I91">
+        <v>-0.02570569795285202</v>
+      </c>
+      <c r="J91">
+        <v>-0.01195088727413131</v>
+      </c>
+      <c r="K91">
+        <v>-0.07179188613295155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3809363792379785</v>
+        <v>0.3530846844767681</v>
       </c>
       <c r="C92">
-        <v>-0.05674346039064605</v>
+        <v>-0.1183190706176746</v>
       </c>
       <c r="D92">
-        <v>0.01960664836207903</v>
+        <v>-0.05362656553475101</v>
       </c>
       <c r="E92">
-        <v>0.02484133309252622</v>
+        <v>0.04654987923034928</v>
       </c>
       <c r="F92">
-        <v>-0.1101275709863328</v>
+        <v>-0.04791629488839327</v>
       </c>
       <c r="G92">
-        <v>0.01044409912140694</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01308371497553389</v>
+      </c>
+      <c r="H92">
+        <v>-0.05132043239422132</v>
+      </c>
+      <c r="I92">
+        <v>-0.0367702318359746</v>
+      </c>
+      <c r="J92">
+        <v>-0.1517367953616361</v>
+      </c>
+      <c r="K92">
+        <v>-0.0002303579779817667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3055123618985763</v>
+        <v>0.3109016549876233</v>
       </c>
       <c r="C93">
-        <v>-0.07268658565803023</v>
+        <v>-0.1130570601257932</v>
       </c>
       <c r="D93">
-        <v>-0.01049037287645137</v>
+        <v>-0.009968768422584397</v>
       </c>
       <c r="E93">
-        <v>-0.07094131901986263</v>
+        <v>0.007973826511903107</v>
       </c>
       <c r="F93">
-        <v>-0.03787743441263071</v>
+        <v>-0.03979955616448002</v>
       </c>
       <c r="G93">
-        <v>0.01629513726920244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03352834933434647</v>
+      </c>
+      <c r="H93">
+        <v>-0.03823150144369623</v>
+      </c>
+      <c r="I93">
+        <v>0.01283535419889358</v>
+      </c>
+      <c r="J93">
+        <v>-0.1019461898065666</v>
+      </c>
+      <c r="K93">
+        <v>0.02550996574208109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03664283881840368</v>
+        <v>0.07756284889823194</v>
       </c>
       <c r="C94">
-        <v>0.1917509385528613</v>
+        <v>0.1608654214590056</v>
       </c>
       <c r="D94">
-        <v>-0.153190361794114</v>
+        <v>0.1151828826863598</v>
       </c>
       <c r="E94">
-        <v>0.1994454598135202</v>
+        <v>-0.03392136752761401</v>
       </c>
       <c r="F94">
-        <v>0.09309366977429348</v>
+        <v>0.1400841257170726</v>
       </c>
       <c r="G94">
-        <v>0.5905672518125971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5648346335440741</v>
+      </c>
+      <c r="H94">
+        <v>0.1466109305532391</v>
+      </c>
+      <c r="I94">
+        <v>0.06512466822825412</v>
+      </c>
+      <c r="J94">
+        <v>0.06151618140784547</v>
+      </c>
+      <c r="K94">
+        <v>-0.2874229263360255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.0231587707539909</v>
+        <v>0.03917648547352043</v>
       </c>
       <c r="C95">
-        <v>0.09531297728609897</v>
+        <v>0.1271896443346008</v>
       </c>
       <c r="D95">
-        <v>-0.04965520909491223</v>
+        <v>0.06568705252016638</v>
       </c>
       <c r="E95">
-        <v>0.03108754238390337</v>
+        <v>0.01544919512748372</v>
       </c>
       <c r="F95">
-        <v>0.08153547915791295</v>
+        <v>0.07682530982975863</v>
       </c>
       <c r="G95">
-        <v>-0.08001343487672191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04346581061551921</v>
+      </c>
+      <c r="H95">
+        <v>-0.03603209036486225</v>
+      </c>
+      <c r="I95">
+        <v>-0.09203676558835588</v>
+      </c>
+      <c r="J95">
+        <v>0.1685387299114336</v>
+      </c>
+      <c r="K95">
+        <v>-0.2531049641526158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-8.060435798871033e-05</v>
+        <v>0.01634093530115764</v>
       </c>
       <c r="C97">
-        <v>-0.0009233995305965583</v>
+        <v>0.01646689787283336</v>
       </c>
       <c r="D97">
-        <v>-0.0004484893113135887</v>
+        <v>-0.006557240543247385</v>
       </c>
       <c r="E97">
-        <v>0.003341266779238529</v>
+        <v>0.02610191664941651</v>
       </c>
       <c r="F97">
-        <v>-0.003281780107158439</v>
+        <v>0.01136890948090492</v>
       </c>
       <c r="G97">
-        <v>-0.001472572082714738</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.0269682780181709</v>
+      </c>
+      <c r="H97">
+        <v>-0.08351405316961916</v>
+      </c>
+      <c r="I97">
+        <v>0.1134387587215003</v>
+      </c>
+      <c r="J97">
+        <v>0.02402964716416526</v>
+      </c>
+      <c r="K97">
+        <v>-0.05421107259360627</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07935026069200066</v>
+        <v>0.1311914106255961</v>
       </c>
       <c r="C98">
-        <v>0.1377208999597512</v>
+        <v>0.1613865225008712</v>
       </c>
       <c r="D98">
-        <v>-0.1340065285356057</v>
+        <v>0.0938584112139044</v>
       </c>
       <c r="E98">
-        <v>0.1045987478683365</v>
+        <v>-0.05162481702329259</v>
       </c>
       <c r="F98">
-        <v>0.1223948315395136</v>
+        <v>0.2246277907950262</v>
       </c>
       <c r="G98">
-        <v>-0.208271735077424</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2697640404778911</v>
+      </c>
+      <c r="H98">
+        <v>0.337660657945302</v>
+      </c>
+      <c r="I98">
+        <v>0.1537391137853515</v>
+      </c>
+      <c r="J98">
+        <v>-0.1038838151068956</v>
+      </c>
+      <c r="K98">
+        <v>0.0583077053974846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02064091508602085</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.05143118014065633</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01766315204531012</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.009332361404808238</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.1331356373678038</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01320871812364263</v>
+      </c>
+      <c r="H99">
+        <v>-0.4482486300051554</v>
+      </c>
+      <c r="I99">
+        <v>0.8254108496080442</v>
+      </c>
+      <c r="J99">
+        <v>0.05185397306070098</v>
+      </c>
+      <c r="K99">
+        <v>-0.08294819238140359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.0086966818096012</v>
+        <v>0.01511805505027487</v>
       </c>
       <c r="C101">
-        <v>0.07570680642902533</v>
+        <v>0.08220358311835226</v>
       </c>
       <c r="D101">
-        <v>-0.04440543416162387</v>
+        <v>0.05076706273184969</v>
       </c>
       <c r="E101">
-        <v>-0.01797372545196674</v>
+        <v>-0.04820606255062177</v>
       </c>
       <c r="F101">
-        <v>0.01719956410489995</v>
+        <v>-0.008022281628300683</v>
       </c>
       <c r="G101">
-        <v>-0.1230098562944223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1542073059862627</v>
+      </c>
+      <c r="H101">
+        <v>-0.2338240401352291</v>
+      </c>
+      <c r="I101">
+        <v>-0.1388574447597761</v>
+      </c>
+      <c r="J101">
+        <v>-0.02035080830395608</v>
+      </c>
+      <c r="K101">
+        <v>-0.1894718101283668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.005355757697338774</v>
+        <v>0.002427057411427263</v>
       </c>
       <c r="C102">
-        <v>0.01879742205426917</v>
+        <v>0.007427728152656615</v>
       </c>
       <c r="D102">
-        <v>-0.001740104477259689</v>
+        <v>-0.001545730177271108</v>
       </c>
       <c r="E102">
-        <v>0.02600161187272086</v>
+        <v>-0.002510561598801903</v>
       </c>
       <c r="F102">
-        <v>0.02199296105644378</v>
+        <v>0.006998787251887633</v>
       </c>
       <c r="G102">
-        <v>0.007049972492948514</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.004923789118460731</v>
+      </c>
+      <c r="H102">
+        <v>-0.0003631710389030728</v>
+      </c>
+      <c r="I102">
+        <v>-0.004328383856648911</v>
+      </c>
+      <c r="J102">
+        <v>0.01115816695346254</v>
+      </c>
+      <c r="K102">
+        <v>0.0005826255141265829</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
